--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/artfynd/A 46195-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/artfynd/A 46195-2022.xlsx", "A 46195-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/kartor/A 46195-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/kartor/A 46195-2022.png", "A 46195-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/klagomål/A 46195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/klagomål/A 46195-2022.docx", "A 46195-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/klagomålsmail/A 46195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/klagomålsmail/A 46195-2022.docx", "A 46195-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/tillsyn/A 46195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/tillsyn/A 46195-2022.docx", "A 46195-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/tillsynsmail/A 46195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PERSTORP/tillsynsmail/A 46195-2022.docx", "A 46195-2022")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -572,7 +572,7 @@
         <v>44845</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43378</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>43410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43425</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43510</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43510</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>43510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>43539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>43550</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>43567</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43567</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>43580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43584</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43595</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43607</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43644</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43644</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43656</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43656</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43718</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43720</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43748</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43752</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43775</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43802</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43804</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43808</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43808</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43819</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43837</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43906</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43934</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43983</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43990</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44013</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44025</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44182</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44235</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44245</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44246</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44286</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44287</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44305</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44306</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44306</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>44362</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>44362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44362</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44369</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44446</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44446</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44522</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44739</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44879</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44900</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>44923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>44939</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45005</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45058</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45077</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>45086</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>45106</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45107</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
